--- a/test/scheduleoutput.xlsx
+++ b/test/scheduleoutput.xlsx
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>x1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+  <si>
+    <t>jobname</t>
+  </si>
+  <si>
+    <t>runtime</t>
   </si>
   <si>
     <t>0:00</t>
@@ -436,13 +439,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,25 +476,28 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -505,13 +511,16 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -520,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -532,24 +541,27 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -569,16 +581,19 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -601,13 +616,16 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -619,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -633,80 +651,89 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>15</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -729,13 +756,16 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -747,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -761,19 +791,22 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -791,6 +824,9 @@
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>0</v>
       </c>
     </row>
